--- a/cuadro20102012.xlsx
+++ b/cuadro20102012.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,37 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Bottom 40%</t>
+          <t>Labor</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Upper 60%</t>
+          <t>Capital</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PPI</t>
+          <t>Social programs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Other transfers</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Imputed rent and other income</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Consumption</t>
         </is>
       </c>
     </row>
@@ -384,83 +399,758 @@
         <v>3.947044382135778</v>
       </c>
       <c r="B2">
-        <v>1.092024554441973</v>
+        <v>2.671044274175949</v>
       </c>
       <c r="C2">
-        <v>4.520697563461207</v>
+        <v>18.74860522307036</v>
       </c>
       <c r="D2">
-        <v>-2.855019827693806</v>
+        <v>0.9955778373415658</v>
+      </c>
+      <c r="E2">
+        <v>10.51880661564209</v>
+      </c>
+      <c r="F2">
+        <v>-2.308945690263231</v>
+      </c>
+      <c r="G2">
+        <v>2.63529879461426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2.671044274175949</v>
+        <v>6.100819739963592</v>
       </c>
       <c r="B3">
-        <v>-0.4679082860294392</v>
+        <v>9.020176648897493</v>
       </c>
       <c r="C3">
-        <v>3.154138250735095</v>
+        <v>-18.56913461703404</v>
       </c>
       <c r="D3">
-        <v>-3.138952560205388</v>
+        <v>-28.92484301123506</v>
+      </c>
+      <c r="E3">
+        <v>6.490264536302592</v>
+      </c>
+      <c r="F3">
+        <v>-0.1247057263117135</v>
+      </c>
+      <c r="G3">
+        <v>2.133519648047355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>18.7486052230704</v>
+        <v>0.4225811661312751</v>
       </c>
       <c r="B4">
-        <v>5.089016058592355</v>
+        <v>5.15873940690037</v>
       </c>
       <c r="C4">
-        <v>19.41750583590045</v>
+        <v>-47.52656995431595</v>
       </c>
       <c r="D4">
-        <v>-13.65958916447805</v>
+        <v>9.715428165117146</v>
+      </c>
+      <c r="E4">
+        <v>-3.792281242681861</v>
+      </c>
+      <c r="F4">
+        <v>1.812767419064421</v>
+      </c>
+      <c r="G4">
+        <v>0.04611465400772286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.9955778373415658</v>
+        <v>7.308254659385738</v>
       </c>
       <c r="B5">
-        <v>5.216875107943642</v>
+        <v>14.01684862686168</v>
       </c>
       <c r="C5">
-        <v>-6.634514398228308</v>
+        <v>-30.53159005723529</v>
       </c>
       <c r="D5">
-        <v>4.221297270602076</v>
+        <v>28.2313642703238</v>
+      </c>
+      <c r="E5">
+        <v>0.9530531083447702</v>
+      </c>
+      <c r="F5">
+        <v>1.963705535369753</v>
+      </c>
+      <c r="G5">
+        <v>1.134929364783277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>10.51880661564209</v>
+        <v>9.770492874216274</v>
       </c>
       <c r="B6">
-        <v>4.87224571311069</v>
+        <v>14.42627850262479</v>
       </c>
       <c r="C6">
-        <v>12.20115120977312</v>
+        <v>-21.145179108595</v>
       </c>
       <c r="D6">
-        <v>-5.646560902531395</v>
+        <v>-8.448124626208909</v>
+      </c>
+      <c r="E6">
+        <v>13.47362741619114</v>
+      </c>
+      <c r="F6">
+        <v>-3.360590468453684</v>
+      </c>
+      <c r="G6">
+        <v>8.779320484894804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-2.308945690263231</v>
+        <v>-3.134340328265484</v>
       </c>
       <c r="B7">
-        <v>-1.002590435348827</v>
+        <v>0.7744832704811744</v>
       </c>
       <c r="C7">
-        <v>-2.689340550824848</v>
+        <v>-26.62408310480326</v>
       </c>
       <c r="D7">
-        <v>1.306355254914404</v>
+        <v>-33.81074926244634</v>
+      </c>
+      <c r="E7">
+        <v>4.8263076985813</v>
+      </c>
+      <c r="F7">
+        <v>-19.3359581958012</v>
+      </c>
+      <c r="G7">
+        <v>3.866981733885422</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>-2.780945172055538</v>
+      </c>
+      <c r="B8">
+        <v>-5.336537603778336</v>
+      </c>
+      <c r="C8">
+        <v>-16.60277216018676</v>
+      </c>
+      <c r="D8">
+        <v>8.077877095621266</v>
+      </c>
+      <c r="E8">
+        <v>5.430102007148885</v>
+      </c>
+      <c r="F8">
+        <v>1.295988907468226</v>
+      </c>
+      <c r="G8">
+        <v>-4.567250472918893</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.1560738307387455</v>
+      </c>
+      <c r="B9">
+        <v>1.20099864338008</v>
+      </c>
+      <c r="C9">
+        <v>0.3912079033353999</v>
+      </c>
+      <c r="D9">
+        <v>3.732639770681234</v>
+      </c>
+      <c r="E9">
+        <v>2.123021133517966</v>
+      </c>
+      <c r="F9">
+        <v>-8.511489202485812</v>
+      </c>
+      <c r="G9">
+        <v>-5.717708796925313</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>-5.102103224799414</v>
+      </c>
+      <c r="B10">
+        <v>-5.289936865472066</v>
+      </c>
+      <c r="C10">
+        <v>-36.89251528658538</v>
+      </c>
+      <c r="D10">
+        <v>4.899190279234666</v>
+      </c>
+      <c r="E10">
+        <v>9.297508608465543</v>
+      </c>
+      <c r="F10">
+        <v>-15.67132432049298</v>
+      </c>
+      <c r="G10">
+        <v>10.68034404488911</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>3.623705302884739</v>
+      </c>
+      <c r="B11">
+        <v>4.835607822531407</v>
+      </c>
+      <c r="C11">
+        <v>-15.06734370673558</v>
+      </c>
+      <c r="D11">
+        <v>8.508669224128806</v>
+      </c>
+      <c r="E11">
+        <v>14.33472629922206</v>
+      </c>
+      <c r="F11">
+        <v>-5.597464647811257</v>
+      </c>
+      <c r="G11">
+        <v>7.639096179335048</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>-0.06077151059871166</v>
+      </c>
+      <c r="B12">
+        <v>3.256719443942457</v>
+      </c>
+      <c r="C12">
+        <v>20.58578316347786</v>
+      </c>
+      <c r="D12">
+        <v>-3.643573499268027</v>
+      </c>
+      <c r="E12">
+        <v>-5.99544142200017</v>
+      </c>
+      <c r="F12">
+        <v>-7.189873361273403</v>
+      </c>
+      <c r="G12">
+        <v>-2.318055566825772</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>7.576374192241198</v>
+      </c>
+      <c r="B13">
+        <v>-1.118090061122634</v>
+      </c>
+      <c r="C13">
+        <v>68.2704560796479</v>
+      </c>
+      <c r="D13">
+        <v>-2.630272216403029</v>
+      </c>
+      <c r="E13">
+        <v>18.37065889417262</v>
+      </c>
+      <c r="F13">
+        <v>13.59004809352977</v>
+      </c>
+      <c r="G13">
+        <v>6.645569697101728</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>-2.67004223941173</v>
+      </c>
+      <c r="B14">
+        <v>-6.23796039411566</v>
+      </c>
+      <c r="C14">
+        <v>-57.7977913477449</v>
+      </c>
+      <c r="D14">
+        <v>-13.72418652414669</v>
+      </c>
+      <c r="E14">
+        <v>10.41804564686373</v>
+      </c>
+      <c r="F14">
+        <v>6.831316635111318</v>
+      </c>
+      <c r="G14">
+        <v>-3.402777244153299</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>12.44850911816484</v>
+      </c>
+      <c r="B15">
+        <v>7.934597344136019</v>
+      </c>
+      <c r="C15">
+        <v>-20.51099506385271</v>
+      </c>
+      <c r="D15">
+        <v>-13.93671767840122</v>
+      </c>
+      <c r="E15">
+        <v>36.34505926594209</v>
+      </c>
+      <c r="F15">
+        <v>10.28523866419284</v>
+      </c>
+      <c r="G15">
+        <v>10.2581785921827</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>13.73657250710039</v>
+      </c>
+      <c r="B16">
+        <v>3.459314248454315</v>
+      </c>
+      <c r="C16">
+        <v>181.7141837371099</v>
+      </c>
+      <c r="D16">
+        <v>-2.722235848389565</v>
+      </c>
+      <c r="E16">
+        <v>-1.272658790829973</v>
+      </c>
+      <c r="F16">
+        <v>-5.526813796076569</v>
+      </c>
+      <c r="G16">
+        <v>5.252017610471893</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>3.950140785548983</v>
+      </c>
+      <c r="B17">
+        <v>-0.7064024019878268</v>
+      </c>
+      <c r="C17">
+        <v>54.12536880620606</v>
+      </c>
+      <c r="D17">
+        <v>11.19868679556138</v>
+      </c>
+      <c r="E17">
+        <v>17.78908953784046</v>
+      </c>
+      <c r="F17">
+        <v>2.453130308539642</v>
+      </c>
+      <c r="G17">
+        <v>-6.636641792684683</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>-1.710858784155867</v>
+      </c>
+      <c r="B18">
+        <v>-0.2718910016849097</v>
+      </c>
+      <c r="C18">
+        <v>-30.4616244354572</v>
+      </c>
+      <c r="D18">
+        <v>-10.99578014318981</v>
+      </c>
+      <c r="E18">
+        <v>4.557192982649627</v>
+      </c>
+      <c r="F18">
+        <v>-10.78541234813876</v>
+      </c>
+      <c r="G18">
+        <v>-3.479880689736781</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.8246313045246145</v>
+      </c>
+      <c r="B19">
+        <v>-8.61531596662255</v>
+      </c>
+      <c r="C19">
+        <v>126.0125425910831</v>
+      </c>
+      <c r="D19">
+        <v>12.10938495951948</v>
+      </c>
+      <c r="E19">
+        <v>14.4593247321485</v>
+      </c>
+      <c r="F19">
+        <v>-3.840198412381346</v>
+      </c>
+      <c r="G19">
+        <v>2.334503677087274</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>8.628935780310453</v>
+      </c>
+      <c r="B20">
+        <v>3.098495025627179</v>
+      </c>
+      <c r="C20">
+        <v>20.61287818593565</v>
+      </c>
+      <c r="D20">
+        <v>-8.44111638677898</v>
+      </c>
+      <c r="E20">
+        <v>33.87390187119674</v>
+      </c>
+      <c r="F20">
+        <v>3.102589647224496</v>
+      </c>
+      <c r="G20">
+        <v>2.499705270861941</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>2.601829547726453</v>
+      </c>
+      <c r="B21">
+        <v>0.3015607551191124</v>
+      </c>
+      <c r="C21">
+        <v>-24.21635873124484</v>
+      </c>
+      <c r="D21">
+        <v>-7.311454606472734</v>
+      </c>
+      <c r="E21">
+        <v>20.00543337435232</v>
+      </c>
+      <c r="F21">
+        <v>-0.1159722757222981</v>
+      </c>
+      <c r="G21">
+        <v>3.496500201817265</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>-8.485875539463795</v>
+      </c>
+      <c r="B22">
+        <v>-10.21612001998954</v>
+      </c>
+      <c r="C22">
+        <v>-54.12470265070002</v>
+      </c>
+      <c r="D22">
+        <v>9.922082998362058</v>
+      </c>
+      <c r="E22">
+        <v>-2.185512881589247</v>
+      </c>
+      <c r="F22">
+        <v>-1.941940363020189</v>
+      </c>
+      <c r="G22">
+        <v>-3.754520792807981</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>9.897031779089849</v>
+      </c>
+      <c r="B23">
+        <v>11.24848491323864</v>
+      </c>
+      <c r="C23">
+        <v>-43.90991044242843</v>
+      </c>
+      <c r="D23">
+        <v>6.611796847160489</v>
+      </c>
+      <c r="E23">
+        <v>21.39661451599761</v>
+      </c>
+      <c r="F23">
+        <v>-4.708509335052802</v>
+      </c>
+      <c r="G23">
+        <v>16.92607001051385</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>18.83263549980683</v>
+      </c>
+      <c r="B24">
+        <v>4.896332931868885</v>
+      </c>
+      <c r="C24">
+        <v>62.79110326122481</v>
+      </c>
+      <c r="D24">
+        <v>-1.792625357909128</v>
+      </c>
+      <c r="E24">
+        <v>54.40550813788363</v>
+      </c>
+      <c r="F24">
+        <v>15.07299301976666</v>
+      </c>
+      <c r="G24">
+        <v>12.95796334309189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>-3.158995752245486</v>
+      </c>
+      <c r="B25">
+        <v>-1.152529662917179</v>
+      </c>
+      <c r="C25">
+        <v>-11.15014479236212</v>
+      </c>
+      <c r="D25">
+        <v>-20.06243312642669</v>
+      </c>
+      <c r="E25">
+        <v>-18.11138725105084</v>
+      </c>
+      <c r="F25">
+        <v>4.429087585223179</v>
+      </c>
+      <c r="G25">
+        <v>-3.956502986476052</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>1.725548848023362</v>
+      </c>
+      <c r="B26">
+        <v>5.380978470285713</v>
+      </c>
+      <c r="C26">
+        <v>-49.37546941760843</v>
+      </c>
+      <c r="D26">
+        <v>20.00891816430572</v>
+      </c>
+      <c r="E26">
+        <v>7.772479087419804</v>
+      </c>
+      <c r="F26">
+        <v>-6.680778136800125</v>
+      </c>
+      <c r="G26">
+        <v>-5.892730844084371</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>-0.3024186015009867</v>
+      </c>
+      <c r="B27">
+        <v>2.087490779489731</v>
+      </c>
+      <c r="C27">
+        <v>6.175426795938344</v>
+      </c>
+      <c r="D27">
+        <v>11.77933188219573</v>
+      </c>
+      <c r="E27">
+        <v>-1.4600833371751</v>
+      </c>
+      <c r="F27">
+        <v>-14.86418310843712</v>
+      </c>
+      <c r="G27">
+        <v>-8.522312835268242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>7.67544291197475</v>
+      </c>
+      <c r="B28">
+        <v>9.12055924719426</v>
+      </c>
+      <c r="C28">
+        <v>-30.55275997695327</v>
+      </c>
+      <c r="D28">
+        <v>18.10271885861026</v>
+      </c>
+      <c r="E28">
+        <v>18.36208759525995</v>
+      </c>
+      <c r="F28">
+        <v>2.894368924225343</v>
+      </c>
+      <c r="G28">
+        <v>1.777924484580473</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>8.406196230340225</v>
+      </c>
+      <c r="B29">
+        <v>7.800862180415602</v>
+      </c>
+      <c r="C29">
+        <v>69.38333192599058</v>
+      </c>
+      <c r="D29">
+        <v>8.261591340975238</v>
+      </c>
+      <c r="E29">
+        <v>13.71627870385181</v>
+      </c>
+      <c r="F29">
+        <v>-2.568778515996906</v>
+      </c>
+      <c r="G29">
+        <v>4.206873516891596</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>15.28084939802872</v>
+      </c>
+      <c r="B30">
+        <v>19.18376718461761</v>
+      </c>
+      <c r="C30">
+        <v>-27.84123966243331</v>
+      </c>
+      <c r="D30">
+        <v>8.97239551716671</v>
+      </c>
+      <c r="E30">
+        <v>20.36115774619161</v>
+      </c>
+      <c r="F30">
+        <v>2.78901746801945</v>
+      </c>
+      <c r="G30">
+        <v>16.82936932245003</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>-1.411582680346346</v>
+      </c>
+      <c r="B31">
+        <v>-3.844947195733039</v>
+      </c>
+      <c r="C31">
+        <v>34.88424137845782</v>
+      </c>
+      <c r="D31">
+        <v>-9.556649766675063</v>
+      </c>
+      <c r="E31">
+        <v>-0.413113328751813</v>
+      </c>
+      <c r="F31">
+        <v>1.218150336590163</v>
+      </c>
+      <c r="G31">
+        <v>-8.392426339492031</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>2.673928398582914</v>
+      </c>
+      <c r="B32">
+        <v>4.105844312144358</v>
+      </c>
+      <c r="C32">
+        <v>18.44378708208016</v>
+      </c>
+      <c r="D32">
+        <v>1.226995927089836</v>
+      </c>
+      <c r="E32">
+        <v>-0.5757475646781196</v>
+      </c>
+      <c r="F32">
+        <v>-1.645701865110072</v>
+      </c>
+      <c r="G32">
+        <v>5.864400669921355</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>-6.070520500340404</v>
+      </c>
+      <c r="B33">
+        <v>-3.309745417315557</v>
+      </c>
+      <c r="C33">
+        <v>-31.60096484054176</v>
+      </c>
+      <c r="D33">
+        <v>20.2044925766292</v>
+      </c>
+      <c r="E33">
+        <v>-9.939228105598307</v>
+      </c>
+      <c r="F33">
+        <v>-12.18575081712194</v>
+      </c>
+      <c r="G33">
+        <v>-5.207639507700446</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>5.967304083208935</v>
+      </c>
+      <c r="B34">
+        <v>11.56852626399061</v>
+      </c>
+      <c r="C34">
+        <v>-47.38498535566838</v>
+      </c>
+      <c r="D34">
+        <v>-11.47549796275822</v>
+      </c>
+      <c r="E34">
+        <v>-2.62275879989724</v>
+      </c>
+      <c r="F34">
+        <v>11.08649928542187</v>
+      </c>
+      <c r="G34">
+        <v>8.304667105660911</v>
       </c>
     </row>
   </sheetData>
